--- a/relatorios/static/Velocidade.xlsx
+++ b/relatorios/static/Velocidade.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulisses\Desktop\Projetos\relatorios\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\COLAGEM\Velocidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3FE29-A425-43C3-9DBD-CEBB90F5843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839D244-3C65-4AE8-9ED9-8727C4B882C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{79BDCEDD-E6D2-4397-BCDD-0E4668BB6F30}"/>
+    <workbookView xWindow="30" yWindow="480" windowWidth="20460" windowHeight="11040" xr2:uid="{79BDCEDD-E6D2-4397-BCDD-0E4668BB6F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1003</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1031</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="923">
   <si>
     <t>Conc</t>
   </si>
@@ -2746,6 +2737,90 @@
   </si>
   <si>
     <t>BANDEJA NESTLÉ PRETZEL - SEM IMPRESSÃO</t>
+  </si>
+  <si>
+    <t>5880002T00A</t>
+  </si>
+  <si>
+    <t>6330020T01</t>
+  </si>
+  <si>
+    <t>CART PANETTONE FORNERIA ITÁLIA FRUTAS CRISTALIZADAS 300g</t>
+  </si>
+  <si>
+    <t>FSC - CART COR&amp;TON COLOR NIELY 5.0 CASTANHO CLARO 135g</t>
+  </si>
+  <si>
+    <t>6180004T00</t>
+  </si>
+  <si>
+    <t>CART EMS CLORIDRATO DE BUPROPIONA 150mg 60 COMP F245</t>
+  </si>
+  <si>
+    <t>6180006T00</t>
+  </si>
+  <si>
+    <t>CART GERMED ATORVASTATINA CALCICA 40mg 30 COMP F13</t>
+  </si>
+  <si>
+    <t>6180007T00</t>
+  </si>
+  <si>
+    <t>CART EMS (METAL) FIXARE FLEX 60 COMP REV - F290</t>
+  </si>
+  <si>
+    <t>6180008T00</t>
+  </si>
+  <si>
+    <t>CART EMS (MET) BALSAMO BENGUE ALIV GEL USO DER/ADUL 60g F181</t>
+  </si>
+  <si>
+    <t>6180011T00</t>
+  </si>
+  <si>
+    <t>CART EMS SUCRAFILM 200mg/mL 20 FLACONETES DE 10mL F55</t>
+  </si>
+  <si>
+    <t>6430024T00</t>
+  </si>
+  <si>
+    <t>DPL BIOCOLOR DESCOLORANTE RÁPIDO 12 SACHÊS DE 20g CADA</t>
+  </si>
+  <si>
+    <t>6330023_27</t>
+  </si>
+  <si>
+    <t>CART LEGIUM PANETTONE GOURMET FRUTAS CRISTALIZADAS 400g</t>
+  </si>
+  <si>
+    <t>6330026T00</t>
+  </si>
+  <si>
+    <t>CART LEGIUM PANETTONE GOURMET MIL FOLHAS 500g</t>
+  </si>
+  <si>
+    <t>CART (METALIZ) CREME DENTAL ORAL-B 100% 175g</t>
+  </si>
+  <si>
+    <t>D58500784_</t>
+  </si>
+  <si>
+    <t>CART BONEWAX (BRRM80138) - 58500784_02</t>
+  </si>
+  <si>
+    <t>6330021T00</t>
+  </si>
+  <si>
+    <t>CART CASA SANTA LUZIA PANETONE GOTAS DE CHOCOLATE 500g</t>
+  </si>
+  <si>
+    <t>CART GARRAFA EPSON T504422 - AMARELO 504 - 70ml</t>
+  </si>
+  <si>
+    <t>D6790004_0</t>
+  </si>
+  <si>
+    <t>CART PANETTONE 400g - D6790004_00 - KLAFOLD 285 - S/IMP</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2941,12 +3016,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3001,6 +3100,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3317,11 +3425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}">
-  <sheetPr codeName="Planilha1"/>
+  <sheetPr codeName="Planilha1" filterMode="1"/>
   <dimension ref="A1:G1046870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1028" sqref="B1028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2,"-",C2)</f>
         <v>CA09-0020017T00</v>
@@ -3368,7 +3476,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0020029T00</v>
@@ -3386,7 +3494,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0020043T02</v>
@@ -3404,7 +3512,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020043T02</v>
@@ -3422,7 +3530,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0020052T00</v>
@@ -3440,7 +3548,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0020052T00</v>
@@ -3458,7 +3566,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020053T00</v>
@@ -3476,7 +3584,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020053T00</v>
@@ -3494,7 +3602,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA01-0020075T02</v>
@@ -3512,7 +3620,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020075T02</v>
@@ -3530,7 +3638,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020075T02</v>
@@ -3548,7 +3656,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020075T03</v>
@@ -3566,7 +3674,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020075T03</v>
@@ -3584,7 +3692,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0020081T01</v>
@@ -3602,7 +3710,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020081T01</v>
@@ -3620,7 +3728,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020082T00</v>
@@ -3638,7 +3746,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020083T00</v>
@@ -3656,7 +3764,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020083T01</v>
@@ -3674,7 +3782,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020084T00</v>
@@ -3692,7 +3800,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020084T00</v>
@@ -3710,7 +3818,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0020084T00</v>
@@ -3728,7 +3836,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0020084T01</v>
@@ -3746,7 +3854,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA01-0020088T00</v>
@@ -3764,7 +3872,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0020088T00</v>
@@ -3782,7 +3890,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0020088T00</v>
@@ -3800,7 +3908,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0020088T00</v>
@@ -3818,7 +3926,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0020088T00</v>
@@ -3836,7 +3944,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA10-0020088T00</v>
@@ -3854,7 +3962,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0090034T02</v>
@@ -3872,7 +3980,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA01-0090039T00</v>
@@ -3890,7 +3998,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0090039T00</v>
@@ -3908,7 +4016,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0090039T00</v>
@@ -3926,7 +4034,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA14-0090039T00</v>
@@ -3944,7 +4052,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA03-0090039T00</v>
@@ -3962,7 +4070,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0090039T00</v>
@@ -3980,7 +4088,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0090103T00</v>
@@ -3998,7 +4106,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA10-0090103T00</v>
@@ -4016,7 +4124,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0090103T00</v>
@@ -4034,7 +4142,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0090104T00</v>
@@ -4052,7 +4160,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA01-0090104T00</v>
@@ -4070,7 +4178,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0090104T00</v>
@@ -4088,7 +4196,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA05-0090104T00</v>
@@ -4106,7 +4214,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA14-0100003T00</v>
@@ -4124,7 +4232,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA03-0100003T02</v>
@@ -4142,7 +4250,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0100090T00</v>
@@ -4160,7 +4268,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA08-0100090T00</v>
@@ -4178,7 +4286,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0100090T00</v>
@@ -4196,7 +4304,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0100090T01</v>
@@ -4214,7 +4322,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA06-0130077T02</v>
@@ -4232,7 +4340,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA11-0130077T02</v>
@@ -4250,7 +4358,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA07-0130077T02</v>
@@ -4268,7 +4376,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
         <f>_xlfn.CONCAT(B53,"-",C53)</f>
         <v>CA08-0130077T02</v>
@@ -4286,7 +4394,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA03-0130086T00</v>
@@ -4304,7 +4412,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA09-0130086T00</v>
@@ -4322,7 +4430,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA10-0130086T00</v>
@@ -4340,7 +4448,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA14-0130086T00</v>
@@ -4358,7 +4466,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA05-0130086T00</v>
@@ -4376,7 +4484,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA04-0130093T00</v>
@@ -4394,7 +4502,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA04-0130093T00</v>
@@ -4412,7 +4520,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA04-0130093T00</v>
@@ -4430,7 +4538,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA03-0130107T01</v>
@@ -4448,7 +4556,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA02-0130107T01</v>
@@ -4466,7 +4574,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA03-0130107T03</v>
@@ -4484,7 +4592,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CA02-0130107T03</v>
@@ -4502,7 +4610,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="str">
         <f t="shared" ref="A66:A72" si="1">_xlfn.CONCAT(B66,"-",C66)</f>
         <v>CA04-0130111T00</v>
@@ -4520,7 +4628,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA06-0130111T00</v>
@@ -4538,7 +4646,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA11-0130111T00</v>
@@ -4556,7 +4664,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA04-0130117T00</v>
@@ -4574,7 +4682,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA01-0130118T00</v>
@@ -4592,7 +4700,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA07-0130118T00</v>
@@ -4610,7 +4718,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>CA11-0130118T00</v>
@@ -4628,7 +4736,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
         <f t="shared" ref="A73:A85" si="2">_xlfn.CONCAT(B73,"-",C73)</f>
         <v>CA06-0130118T00</v>
@@ -4646,7 +4754,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA01-0190001T01</v>
@@ -4664,7 +4772,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA02-0190001T01</v>
@@ -4682,7 +4790,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA03-0190001T01</v>
@@ -4700,7 +4808,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA05-0190001T01</v>
@@ -4718,7 +4826,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA08-0190001T01</v>
@@ -4736,7 +4844,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA09-0190001T01</v>
@@ -4754,7 +4862,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA12-0190025T00</v>
@@ -4772,7 +4880,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA02-0190025T00</v>
@@ -4790,7 +4898,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA02-0190025T01</v>
@@ -4808,7 +4916,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA12-0190025T01</v>
@@ -4826,7 +4934,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA11-0190025T01</v>
@@ -4844,7 +4952,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f t="shared" si="2"/>
         <v>CA02-0190025T01Y</v>
@@ -4862,7 +4970,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>78</v>
       </c>
@@ -4879,7 +4987,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f t="shared" ref="A87:A118" si="3">_xlfn.CONCAT(B87,"-",C87)</f>
         <v>CA12-0190026T00</v>
@@ -4897,7 +5005,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA11-0190026T00</v>
@@ -4915,7 +5023,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA12-0190026T00E</v>
@@ -4933,7 +5041,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA12-0190026T01</v>
@@ -4951,7 +5059,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA02-0190026T01</v>
@@ -4969,7 +5077,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA11-0190026T01</v>
@@ -4987,7 +5095,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA12-0190026T01E</v>
@@ -5005,7 +5113,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA02-0190029T00</v>
@@ -5023,7 +5131,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA12-0190029T00</v>
@@ -5041,7 +5149,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA04-0190067T03</v>
@@ -5059,7 +5167,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA08-0190067T03</v>
@@ -5077,7 +5185,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA11-0190067T03</v>
@@ -5095,7 +5203,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA06-0190067T03</v>
@@ -5113,7 +5221,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA10-0190067T03</v>
@@ -5131,7 +5239,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA07-0190067T03</v>
@@ -5149,7 +5257,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA07-0190070T00</v>
@@ -5167,7 +5275,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA11-0190076T00</v>
@@ -5185,7 +5293,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA06-0190076T00</v>
@@ -5203,7 +5311,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA08-0190084T00</v>
@@ -5221,7 +5329,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA08-0190085T00</v>
@@ -5239,7 +5347,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA06-0190085T00</v>
@@ -5257,7 +5365,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA07-0190085T00</v>
@@ -5275,7 +5383,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA07-0190086T00</v>
@@ -5293,7 +5401,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210004T03</v>
@@ -5311,7 +5419,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210004T05</v>
@@ -5329,7 +5437,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210006T03</v>
@@ -5347,7 +5455,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210034T02</v>
@@ -5365,7 +5473,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210049T01</v>
@@ -5383,7 +5491,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210049T03</v>
@@ -5401,7 +5509,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA04-0210064T03</v>
@@ -5419,7 +5527,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210064T03</v>
@@ -5437,7 +5545,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>CA05-0210067T02</v>
@@ -5455,7 +5563,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
         <f t="shared" ref="A119:A150" si="4">_xlfn.CONCAT(B119,"-",C119)</f>
         <v>CA05-0210074T01</v>
@@ -5473,7 +5581,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210074T02</v>
@@ -5491,7 +5599,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210076T03</v>
@@ -5509,7 +5617,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210081T01</v>
@@ -5527,7 +5635,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA06-0210082T02</v>
@@ -5545,7 +5653,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA07-0210082T02</v>
@@ -5563,7 +5671,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA11-0210082T02</v>
@@ -5581,7 +5689,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210097T03</v>
@@ -5599,7 +5707,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210097T04</v>
@@ -5617,7 +5725,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210097T05</v>
@@ -5635,7 +5743,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210111T03</v>
@@ -5653,7 +5761,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210111T05</v>
@@ -5671,7 +5779,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210111T06</v>
@@ -5689,7 +5797,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA04-0210111T06</v>
@@ -5707,7 +5815,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210116T01</v>
@@ -5725,7 +5833,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210140T03</v>
@@ -5743,7 +5851,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210140T03A</v>
@@ -5761,7 +5869,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210146T01</v>
@@ -5779,7 +5887,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210156T02</v>
@@ -5797,7 +5905,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA15-0210156T02</v>
@@ -5815,7 +5923,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210167T01</v>
@@ -5833,7 +5941,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210172T01</v>
@@ -5851,7 +5959,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA11-0210177T00</v>
@@ -5869,7 +5977,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA06-0210177T00</v>
@@ -5887,7 +5995,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA11-0210177T01</v>
@@ -5905,7 +6013,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA07-0210177T01</v>
@@ -5923,7 +6031,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA06-0210177T01</v>
@@ -5941,7 +6049,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210179T00</v>
@@ -5959,7 +6067,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210179T00A</v>
@@ -5977,7 +6085,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210179T01</v>
@@ -5995,7 +6103,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210179T01A</v>
@@ -6013,7 +6121,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
         <f t="shared" si="4"/>
         <v>CA05-0210180T00</v>
@@ -6031,7 +6139,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
         <f t="shared" ref="A151:A182" si="5">_xlfn.CONCAT(B151,"-",C151)</f>
         <v>CA05-0210181T00</v>
@@ -6049,7 +6157,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA05-0210183T00</v>
@@ -6067,7 +6175,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA05-0210187T00</v>
@@ -6085,7 +6193,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA05-0210188T00</v>
@@ -6103,7 +6211,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA15-0210188T00</v>
@@ -6121,7 +6229,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA05-0210189T00</v>
@@ -6139,7 +6247,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0210191T00</v>
@@ -6157,7 +6265,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA09-0220003T00</v>
@@ -6175,7 +6283,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA02-0220003T00</v>
@@ -6193,7 +6301,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220003T00</v>
@@ -6211,7 +6319,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA10-0220003T00</v>
@@ -6229,7 +6337,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA15-0220003T00</v>
@@ -6247,7 +6355,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220004T00</v>
@@ -6265,7 +6373,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA11-0220004T00</v>
@@ -6283,7 +6391,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA07-0220004T00</v>
@@ -6301,7 +6409,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220012T04</v>
@@ -6319,7 +6427,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA11-0220012T04</v>
@@ -6337,7 +6445,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA07-0220012T04</v>
@@ -6355,7 +6463,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA08-0220012T04</v>
@@ -6373,7 +6481,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA09-0220012T04</v>
@@ -6391,7 +6499,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220012T05</v>
@@ -6409,7 +6517,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA07-0220012T05</v>
@@ -6427,7 +6535,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA11-0220012T05</v>
@@ -6445,7 +6553,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA08-0220012T05</v>
@@ -6463,7 +6571,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA01-0220032T03</v>
@@ -6481,7 +6589,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA03-0220032T03</v>
@@ -6499,7 +6607,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220032T03</v>
@@ -6517,7 +6625,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA09-0220032T03</v>
@@ -6535,7 +6643,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA14-0220032T03</v>
@@ -6553,7 +6661,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA08-0220032T03</v>
@@ -6571,7 +6679,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA07-0220032T03</v>
@@ -6589,7 +6697,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
         <f t="shared" si="5"/>
         <v>CA06-0220052T00</v>
@@ -6607,7 +6715,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="str">
         <f t="shared" ref="A183:A186" si="6">_xlfn.CONCAT(B183,"-",C183)</f>
         <v>CA11-0220052T00</v>
@@ -6625,7 +6733,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
         <f t="shared" si="6"/>
         <v>CA03-0220075T01</v>
@@ -6643,7 +6751,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="str">
         <f t="shared" si="6"/>
         <v>CA05-0220075T01</v>
@@ -6661,7 +6769,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
         <f t="shared" si="6"/>
         <v>CA09-0220075T01</v>
@@ -6679,7 +6787,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>40</v>
       </c>
@@ -6696,7 +6804,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
         <f t="shared" ref="A188:A250" si="7">_xlfn.CONCAT(B188,"-",C188)</f>
         <v>CA10-0220075T01</v>
@@ -6714,7 +6822,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA14-0220075T01</v>
@@ -6732,7 +6840,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-0220091T00</v>
@@ -6750,7 +6858,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-0220091T00</v>
@@ -6768,7 +6876,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-0220092T02</v>
@@ -6786,7 +6894,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA08-0220092T02</v>
@@ -6804,7 +6912,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-0220092T02</v>
@@ -6822,7 +6930,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA24-0220092T02</v>
@@ -6840,7 +6948,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-0220092T03</v>
@@ -6858,7 +6966,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA08-0220092T03</v>
@@ -6876,7 +6984,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-0220108T00</v>
@@ -6894,7 +7002,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-0220109T00</v>
@@ -6912,7 +7020,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA03-0220110T00</v>
@@ -6930,7 +7038,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA05-0220110T00</v>
@@ -6948,7 +7056,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA14-0220110T00</v>
@@ -6966,7 +7074,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-0220110T00</v>
@@ -6984,7 +7092,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0220110T00</v>
@@ -7002,7 +7110,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-0220110T00</v>
@@ -7020,7 +7128,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA08-0220110T00</v>
@@ -7038,7 +7146,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA01-0220111T00</v>
@@ -7056,7 +7164,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-0220111T00</v>
@@ -7074,7 +7182,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-0220111T00</v>
@@ -7092,7 +7200,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-0220111T00</v>
@@ -7110,7 +7218,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-0220113T00</v>
@@ -7128,7 +7236,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
         <f>_xlfn.CONCAT(B212,"-",C212)</f>
         <v>CA11-0220114T00</v>
@@ -7146,7 +7254,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-0580007T01</v>
@@ -7164,7 +7272,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-0580007T01</v>
@@ -7182,7 +7290,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-0580007T03</v>
@@ -7200,7 +7308,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790002T02</v>
@@ -7218,7 +7326,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790003T03</v>
@@ -7236,7 +7344,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790003T03A</v>
@@ -7254,7 +7362,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790037T01</v>
@@ -7272,7 +7380,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790069T01</v>
@@ -7290,7 +7398,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790090T01</v>
@@ -7308,7 +7416,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790108T00</v>
@@ -7326,7 +7434,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790117T00</v>
@@ -7344,7 +7452,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-0790118T00</v>
@@ -7360,7 +7468,7 @@
       </c>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA03-2190002T00</v>
@@ -7378,7 +7486,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-2190002T00</v>
@@ -7396,7 +7504,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA10-2190002T00</v>
@@ -7414,7 +7522,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA01-2190002T00</v>
@@ -7432,7 +7540,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA02-2190002T00</v>
@@ -7450,7 +7558,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA05-2190003T01</v>
@@ -7468,7 +7576,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-2190003T01</v>
@@ -7486,7 +7594,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA14-2190003T01</v>
@@ -7504,7 +7612,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA05-2190018T00</v>
@@ -7522,7 +7630,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-2190018T00</v>
@@ -7540,7 +7648,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-2190018T00</v>
@@ -7558,7 +7666,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA14-2190018T00</v>
@@ -7576,7 +7684,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-2190018T50</v>
@@ -7594,7 +7702,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA03-2190019T00</v>
@@ -7612,7 +7720,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA09-2190019T00</v>
@@ -7630,7 +7738,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA10-2190019T00</v>
@@ -7648,7 +7756,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-2190019T00</v>
@@ -7666,7 +7774,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA05-2190019T00</v>
@@ -7684,7 +7792,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-2190022T01</v>
@@ -7702,7 +7810,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA06-2190024T00</v>
@@ -7720,7 +7828,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-2190024T00</v>
@@ -7738,7 +7846,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA08-2190024T00</v>
@@ -7756,7 +7864,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA11-2190024T00</v>
@@ -7774,7 +7882,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA07-2430011T02</v>
@@ -7792,7 +7900,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA15-2430011T02</v>
@@ -7810,7 +7918,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
         <f t="shared" si="7"/>
         <v>CA03-2430026T04</v>
@@ -7828,7 +7936,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>892</v>
       </c>
@@ -7845,7 +7953,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
         <f>_xlfn.CONCAT(B252,"-",C252)</f>
         <v>CA14-2430026T04</v>
@@ -7863,7 +7971,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
         <f t="shared" ref="A253:A315" si="8">_xlfn.CONCAT(B253,"-",C253)</f>
         <v>CA10-2430026T04</v>
@@ -7881,7 +7989,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-2430026T04</v>
@@ -7899,7 +8007,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA05-2430026T04</v>
@@ -7917,7 +8025,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-2430026T04</v>
@@ -7935,7 +8043,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-2430028T00</v>
@@ -7953,7 +8061,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA14-2430028T00</v>
@@ -7971,7 +8079,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA10-2430028T00</v>
@@ -7989,7 +8097,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA05-2430028T00</v>
@@ -8007,7 +8115,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-2430028T00</v>
@@ -8025,7 +8133,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-2430028T00</v>
@@ -8043,7 +8151,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA14-2430030T02</v>
@@ -8061,7 +8169,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-2430030T02</v>
@@ -8079,7 +8187,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA15-2430030T02</v>
@@ -8097,7 +8205,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-3070001T00</v>
@@ -8115,7 +8223,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA15-3070001T00</v>
@@ -8133,7 +8241,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA05-3070001T00</v>
@@ -8151,7 +8259,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-3070002T00</v>
@@ -8169,7 +8277,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA15-3070002T00</v>
@@ -8187,7 +8295,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA05-3070002T00</v>
@@ -8205,7 +8313,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-3410058T00</v>
@@ -8223,7 +8331,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-3410072T00</v>
@@ -8241,7 +8349,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-3410072T00</v>
@@ -8259,7 +8367,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA07-3410072T00</v>
@@ -8277,7 +8385,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-3410077T00</v>
@@ -8295,7 +8403,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA07-3410077T00</v>
@@ -8313,7 +8421,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-3670001T00</v>
@@ -8331,7 +8439,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-3770003T02</v>
@@ -8349,7 +8457,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-3770003T02</v>
@@ -8367,7 +8475,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-3770003T02</v>
@@ -8385,7 +8493,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA14-3770003T02</v>
@@ -8403,7 +8511,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA05-3770003T02</v>
@@ -8421,7 +8529,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-3770003T02</v>
@@ -8439,7 +8547,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA10-3770003T02</v>
@@ -8457,7 +8565,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-3770003T02</v>
@@ -8475,7 +8583,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA10-3770010T04</v>
@@ -8493,7 +8601,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-3770010T04</v>
@@ -8511,7 +8619,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-3770010T04</v>
@@ -8529,7 +8637,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA14-3770010T04</v>
@@ -8547,7 +8655,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-3770010T04</v>
@@ -8565,7 +8673,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-3770010T04</v>
@@ -8583,7 +8691,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-3770020T00</v>
@@ -8601,7 +8709,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-5400025T00</v>
@@ -8619,7 +8727,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-5400025T00</v>
@@ -8637,7 +8745,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-5400025T00</v>
@@ -8655,7 +8763,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-5400027T00</v>
@@ -8673,7 +8781,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-5400027T00</v>
@@ -8691,7 +8799,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-5400027T00</v>
@@ -8709,7 +8817,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520001T03</v>
@@ -8727,7 +8835,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-5520001T03</v>
@@ -8745,7 +8853,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520012T00</v>
@@ -8763,7 +8871,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-5520012T00</v>
@@ -8781,7 +8889,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA01-5520014T07</v>
@@ -8799,7 +8907,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA14-5520014T07</v>
@@ -8817,7 +8925,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520014T07</v>
@@ -8835,7 +8943,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA08-5520014T07</v>
@@ -8853,7 +8961,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA10-5520014T07</v>
@@ -8871,7 +8979,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA03-5520014T07</v>
@@ -8889,7 +8997,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA09-5520014T07</v>
@@ -8907,7 +9015,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520015T12</v>
@@ -8923,7 +9031,7 @@
       </c>
       <c r="E311" s="11"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-5520015T12</v>
@@ -8939,7 +9047,7 @@
       </c>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520015T13</v>
@@ -8957,7 +9065,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA11-5520015T13</v>
@@ -8975,7 +9083,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="str">
         <f t="shared" si="8"/>
         <v>CA06-5520015T14</v>
@@ -8993,7 +9101,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="str">
         <f t="shared" ref="A316:A379" si="9">_xlfn.CONCAT(B316,"-",C316)</f>
         <v>CA06-5520015T15</v>
@@ -9011,7 +9119,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA11-5520015T15</v>
@@ -9029,7 +9137,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA07-5520024T00</v>
@@ -9047,7 +9155,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA07-5520025T00</v>
@@ -9065,7 +9173,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA06-5520025T00</v>
@@ -9083,7 +9191,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5600002T01</v>
@@ -9101,7 +9209,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA01-5600002T01</v>
@@ -9119,7 +9227,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5600002T01</v>
@@ -9137,7 +9245,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA15-5600002T01</v>
@@ -9155,7 +9263,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA08-5600002T01</v>
@@ -9173,7 +9281,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA10-5600002T01</v>
@@ -9191,7 +9299,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA15-5600011T02</v>
@@ -9209,7 +9317,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA19-5600011T02</v>
@@ -9227,7 +9335,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA19-5600013T02</v>
@@ -9245,7 +9353,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA20-5600013T02</v>
@@ -9263,7 +9371,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA21-5600013T02</v>
@@ -9281,7 +9389,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA07-5640002T00</v>
@@ -9299,7 +9407,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA11-5640002T00</v>
@@ -9317,7 +9425,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5650002T00</v>
@@ -9335,7 +9443,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA08-5650002T00</v>
@@ -9353,7 +9461,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA05-5650002T00</v>
@@ -9371,7 +9479,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5650002T01</v>
@@ -9389,7 +9497,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5650002T01</v>
@@ -9407,7 +9515,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5650002T01</v>
@@ -9425,7 +9533,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA05-5650002T01</v>
@@ -9443,7 +9551,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5650004T00</v>
@@ -9461,7 +9569,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5650004T00</v>
@@ -9479,7 +9587,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5650004T00</v>
@@ -9497,7 +9605,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5650004T00</v>
@@ -9515,7 +9623,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA05-5650004T00</v>
@@ -9533,7 +9641,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5650005T00</v>
@@ -9551,7 +9659,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5650005T00</v>
@@ -9569,7 +9677,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5650005T00</v>
@@ -9587,7 +9695,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA05-5650005T00</v>
@@ -9605,7 +9713,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5680025T00</v>
@@ -9623,7 +9731,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA07-5680031T00</v>
@@ -9641,7 +9749,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA07-5680036T00</v>
@@ -9659,7 +9767,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA06-5680065T00</v>
@@ -9677,7 +9785,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA11-5680065T00</v>
@@ -9695,7 +9803,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA11-5680066T00</v>
@@ -9713,7 +9821,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA06-5680066T00</v>
@@ -9731,7 +9839,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5680073T00</v>
@@ -9749,7 +9857,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5680081T00</v>
@@ -9767,7 +9875,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA01-5710013T00</v>
@@ -9785,7 +9893,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA01-5710015T00</v>
@@ -9803,7 +9911,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5710015T00</v>
@@ -9821,7 +9929,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA08-5710015T00</v>
@@ -9839,7 +9947,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5710015T00</v>
@@ -9857,7 +9965,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA02-5710015T00</v>
@@ -9875,7 +9983,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA01-5710016T00</v>
@@ -9893,7 +10001,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5710016T00</v>
@@ -9911,7 +10019,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5710016T00</v>
@@ -9929,7 +10037,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5710016T01</v>
@@ -9947,7 +10055,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5730018T00</v>
@@ -9965,7 +10073,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5730018T00</v>
@@ -9983,7 +10091,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA05-5730018T00</v>
@@ -10001,7 +10109,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA15-5730018T00</v>
@@ -10019,7 +10127,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA03-5730019T00</v>
@@ -10037,7 +10145,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA08-5740046T00</v>
@@ -10055,7 +10163,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5740046T00</v>
@@ -10073,7 +10181,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA08-5740055T00</v>
@@ -10091,7 +10199,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA14-5740055T00</v>
@@ -10109,7 +10217,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA09-5740055T00</v>
@@ -10127,7 +10235,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="str">
         <f t="shared" si="9"/>
         <v>CA10-5740055T00</v>
@@ -10145,7 +10253,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="str">
         <f t="shared" ref="A380:A443" si="10">_xlfn.CONCAT(B380,"-",C380)</f>
         <v>CA05-5770001T00</v>
@@ -10163,7 +10271,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5770001T00A</v>
@@ -10181,7 +10289,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5770007T02</v>
@@ -10199,7 +10307,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5770007T02</v>
@@ -10217,7 +10325,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA07-5770007T02</v>
@@ -10235,7 +10343,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA03-5770009T00</v>
@@ -10253,7 +10361,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5770009T00</v>
@@ -10271,7 +10379,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA03-5770012T00</v>
@@ -10289,7 +10397,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5770013T00</v>
@@ -10307,7 +10415,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f t="shared" si="10"/>
         <v>CA03-5800021T00</v>
@@ -10325,7 +10433,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5800021T00</v>
@@ -10343,7 +10451,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="10"/>
         <v>CA06-5800021T00</v>
@@ -10361,7 +10469,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5800021T00</v>
@@ -10379,7 +10487,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f t="shared" si="10"/>
         <v>CA01-5800021T00</v>
@@ -10397,7 +10505,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f t="shared" si="10"/>
         <v>CA07-5800021T00</v>
@@ -10415,7 +10523,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5800021T00</v>
@@ -10433,7 +10541,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f t="shared" si="10"/>
         <v>CA14-5800021T00</v>
@@ -10451,7 +10559,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5800021T00</v>
@@ -10469,7 +10577,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" si="10"/>
         <v>CA12-5800021T00</v>
@@ -10487,7 +10595,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CA07-5800022T00</v>
@@ -10505,7 +10613,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810003T00</v>
@@ -10523,7 +10631,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810066T00</v>
@@ -10541,7 +10649,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5810066T00</v>
@@ -10559,7 +10667,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810072T01</v>
@@ -10577,7 +10685,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5810072T01</v>
@@ -10595,7 +10703,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810072T58</v>
@@ -10613,7 +10721,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5810072T58</v>
@@ -10631,7 +10739,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810072T60</v>
@@ -10649,7 +10757,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810085T00</v>
@@ -10667,7 +10775,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810085T53</v>
@@ -10685,7 +10793,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5810085T53</v>
@@ -10703,7 +10811,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810085T54</v>
@@ -10721,7 +10829,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810087T00</v>
@@ -10739,7 +10847,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA14-5810087T00</v>
@@ -10757,7 +10865,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5810087T00</v>
@@ -10775,7 +10883,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5810087T00</v>
@@ -10793,7 +10901,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5810088T00</v>
@@ -10808,10 +10916,10 @@
         <v>363</v>
       </c>
       <c r="E416" s="11">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA14-5810088T00</v>
@@ -10829,7 +10937,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA05-5810088T00</v>
@@ -10847,7 +10955,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5820006T01</v>
@@ -10865,7 +10973,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA11-5820007T00</v>
@@ -10881,7 +10989,7 @@
       </c>
       <c r="E420" s="11"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850009T00</v>
@@ -10899,7 +11007,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA24-5850009T00</v>
@@ -10917,7 +11025,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850010T00</v>
@@ -10935,7 +11043,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA21-5850010T00</v>
@@ -10953,7 +11061,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA24-5850010T00</v>
@@ -10971,7 +11079,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850013T00</v>
@@ -10989,7 +11097,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA07-5850013T00</v>
@@ -11007,7 +11115,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA24-5850013T00</v>
@@ -11025,7 +11133,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850058T00</v>
@@ -11079,7 +11187,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850062T00</v>
@@ -11097,7 +11205,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850063T00</v>
@@ -11115,7 +11223,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA10-5850063T00</v>
@@ -11133,7 +11241,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5850063T00</v>
@@ -11151,7 +11259,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850064T00</v>
@@ -11169,7 +11277,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850065T00</v>
@@ -11185,7 +11293,7 @@
       </c>
       <c r="E437" s="11"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850083T00</v>
@@ -11203,7 +11311,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA09-5850083T00</v>
@@ -11221,7 +11329,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850086T00</v>
@@ -11239,7 +11347,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850088T00</v>
@@ -11257,7 +11365,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850122T00</v>
@@ -11275,7 +11383,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA06-5850122T00</v>
@@ -11293,7 +11401,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="str">
         <f t="shared" ref="A444:A507" si="11">_xlfn.CONCAT(B444,"-",C444)</f>
         <v>CA07-5850122T00</v>
@@ -11311,7 +11419,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850123T00</v>
@@ -11329,7 +11437,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA11-5850123T00</v>
@@ -11347,7 +11455,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA06-5850123T00</v>
@@ -11365,7 +11473,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA07-5850123T00</v>
@@ -11383,7 +11491,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5850124T00</v>
@@ -11401,7 +11509,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850124T00</v>
@@ -11419,7 +11527,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5850124T00</v>
@@ -11437,7 +11545,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850125T00</v>
@@ -11455,7 +11563,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5850125T00</v>
@@ -11473,7 +11581,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5850126T00</v>
@@ -11491,7 +11599,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850126T00</v>
@@ -11509,7 +11617,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850127T00</v>
@@ -11527,7 +11635,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5850128T00</v>
@@ -11545,7 +11653,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850128T00</v>
@@ -11563,7 +11671,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850129T00</v>
@@ -11581,7 +11689,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850130T00</v>
@@ -11599,7 +11707,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5850130T00</v>
@@ -11617,7 +11725,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850136T00</v>
@@ -11635,7 +11743,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5850136T00</v>
@@ -11653,7 +11761,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850138T00</v>
@@ -11671,7 +11779,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA07-5850142T00</v>
@@ -11689,7 +11797,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA10-5850143T00</v>
@@ -11707,7 +11815,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850143T00</v>
@@ -11725,7 +11833,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA06-5850144T01</v>
@@ -11743,7 +11851,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850146T00</v>
@@ -11761,7 +11869,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5850147T00</v>
@@ -11776,10 +11884,10 @@
         <v>417</v>
       </c>
       <c r="E470" s="11">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5860001T00</v>
@@ -11795,7 +11903,7 @@
       </c>
       <c r="E471" s="11"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5860001T00</v>
@@ -11811,7 +11919,7 @@
       </c>
       <c r="E472" s="11"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5860003T02</v>
@@ -11829,7 +11937,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5860003T02</v>
@@ -11847,7 +11955,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5860005T00</v>
@@ -11863,7 +11971,7 @@
       </c>
       <c r="E475" s="11"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5860005T00</v>
@@ -11881,7 +11989,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5860005T00</v>
@@ -11897,7 +12005,7 @@
       </c>
       <c r="E477" s="11"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5860006T00</v>
@@ -11915,7 +12023,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5860006T00</v>
@@ -11933,7 +12041,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA15-5860006T00</v>
@@ -11951,7 +12059,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA02-5880002T00</v>
@@ -11969,7 +12077,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA02-5880005T00</v>
@@ -11987,7 +12095,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA11-5880018T00</v>
@@ -12005,7 +12113,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA11-5880020T00</v>
@@ -12023,7 +12131,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA06-5880020T00</v>
@@ -12041,7 +12149,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA11-5880021T00</v>
@@ -12059,7 +12167,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA10-5880021T00</v>
@@ -12077,7 +12185,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA11-5880022T00</v>
@@ -12095,7 +12203,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5930025T00</v>
@@ -12113,7 +12221,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA03-5930025T00</v>
@@ -12131,7 +12239,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA01-5930025T00</v>
@@ -12149,7 +12257,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5930025T00</v>
@@ -12167,7 +12275,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5930025T00</v>
@@ -12185,7 +12293,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA01-5930026T00</v>
@@ -12203,7 +12311,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5930026T00</v>
@@ -12221,7 +12329,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA06-5930026T00</v>
@@ -12239,7 +12347,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5930026T00</v>
@@ -12257,7 +12365,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA03-5930026T00</v>
@@ -12275,7 +12383,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA01-5930027T00</v>
@@ -12293,7 +12401,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA03-5930027T00</v>
@@ -12311,7 +12419,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5930027T00</v>
@@ -12329,7 +12437,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5930027T00</v>
@@ -12347,7 +12455,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA14-5930027T00</v>
@@ -12365,7 +12473,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA08-5930029T00</v>
@@ -12383,7 +12491,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA09-5930029T00</v>
@@ -12401,7 +12509,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA06-5930029T00</v>
@@ -12419,7 +12527,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="str">
         <f t="shared" si="11"/>
         <v>CA05-5960001T01</v>
@@ -12437,7 +12545,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="str">
         <f t="shared" ref="A508:A541" si="12">_xlfn.CONCAT(B508,"-",C508)</f>
         <v>CA07-5960004T01</v>
@@ -12455,7 +12563,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA06-5960004T01</v>
@@ -12473,7 +12581,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA05-5960020T00</v>
@@ -12491,7 +12599,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960020T00</v>
@@ -12509,7 +12617,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960020T00</v>
@@ -12527,7 +12635,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA10-5960020T00</v>
@@ -12545,7 +12653,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA14-5960020T00</v>
@@ -12563,7 +12671,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960020T01</v>
@@ -12581,7 +12689,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960020T01</v>
@@ -12599,7 +12707,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA14-5960020T01</v>
@@ -12617,7 +12725,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA05-5960020T01</v>
@@ -12635,7 +12743,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA07-5960021T00</v>
@@ -12653,7 +12761,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960021T00</v>
@@ -12671,7 +12779,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA07-5960021T01</v>
@@ -12689,7 +12797,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960022T00</v>
@@ -12707,7 +12815,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960023T01</v>
@@ -12725,7 +12833,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960023T01</v>
@@ -12743,7 +12851,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA05-5960024T00</v>
@@ -12761,7 +12869,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA14-5960024T00</v>
@@ -12779,7 +12887,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960024T00</v>
@@ -12797,7 +12905,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960024T00</v>
@@ -12815,7 +12923,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA10-5960024T00</v>
@@ -12833,7 +12941,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA05-5960024T01</v>
@@ -12851,7 +12959,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-5960024T01</v>
@@ -12869,7 +12977,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA10-5960024T01</v>
@@ -12887,7 +12995,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960024T01</v>
@@ -12905,7 +13013,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA05-5960024T02</v>
@@ -12923,7 +13031,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-5960024T02</v>
@@ -12941,7 +13049,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA01-6010001T01</v>
@@ -12959,7 +13067,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA14-6010001T01</v>
@@ -12977,7 +13085,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA08-6010001T01</v>
@@ -12995,7 +13103,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA03-6010001T01</v>
@@ -13013,7 +13121,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA09-6010001T01</v>
@@ -13031,7 +13139,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="str">
         <f t="shared" si="12"/>
         <v>CA10-6060001T00</v>
@@ -13049,7 +13157,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9">
         <v>7</v>
       </c>
@@ -13066,7 +13174,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="str">
         <f t="shared" ref="A543:A606" si="13">_xlfn.CONCAT(B543,"-",C543)</f>
         <v>CA10-6060001T58</v>
@@ -13084,7 +13192,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6060001T58</v>
@@ -13102,7 +13210,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6060006T00</v>
@@ -13120,7 +13228,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6060012T00</v>
@@ -13138,7 +13246,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6060012T00</v>
@@ -13156,7 +13264,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6060013T00</v>
@@ -13174,7 +13282,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6060016T00</v>
@@ -13192,7 +13300,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6060020T00</v>
@@ -13210,7 +13318,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA24-6060020T00</v>
@@ -13228,7 +13336,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6060022T00</v>
@@ -13246,7 +13354,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6060023T00</v>
@@ -13262,7 +13370,7 @@
       </c>
       <c r="E553" s="11"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA14-6120001T00</v>
@@ -13278,7 +13386,7 @@
       </c>
       <c r="E554" s="11"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA04-6160003T01</v>
@@ -13296,7 +13404,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160003T01</v>
@@ -13314,7 +13422,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA11-6160003T01</v>
@@ -13332,7 +13440,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160003T01</v>
@@ -13350,7 +13458,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6160003T01</v>
@@ -13368,7 +13476,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA03-6160004T00</v>
@@ -13386,7 +13494,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160004T00</v>
@@ -13404,7 +13512,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160004T00</v>
@@ -13422,7 +13530,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160004T00</v>
@@ -13440,7 +13548,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA14-6160004T00</v>
@@ -13458,7 +13566,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA08-6160004T00</v>
@@ -13476,7 +13584,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160005T00</v>
@@ -13494,7 +13602,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160005T00</v>
@@ -13512,7 +13620,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA03-6160006T00</v>
@@ -13530,7 +13638,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160006T00</v>
@@ -13548,7 +13656,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA05-6160006T00</v>
@@ -13566,7 +13674,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160007T00</v>
@@ -13584,7 +13692,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160007T00</v>
@@ -13602,7 +13710,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160008T00</v>
@@ -13620,7 +13728,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA08-6160008T00</v>
@@ -13638,7 +13746,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160008T00</v>
@@ -13656,7 +13764,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA11-6160009T00</v>
@@ -13674,7 +13782,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160009T00</v>
@@ -13692,7 +13800,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160010T00</v>
@@ -13710,7 +13818,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160016T00</v>
@@ -13726,7 +13834,7 @@
       </c>
       <c r="E579" s="11"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160022T00</v>
@@ -13742,7 +13850,7 @@
       </c>
       <c r="E580" s="11"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160022T00</v>
@@ -13758,7 +13866,7 @@
       </c>
       <c r="E581" s="11"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA05-6160022T00</v>
@@ -13774,7 +13882,7 @@
       </c>
       <c r="E582" s="11"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA14-6160022T00</v>
@@ -13790,7 +13898,7 @@
       </c>
       <c r="E583" s="11"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA08-6160022T00</v>
@@ -13806,7 +13914,7 @@
       </c>
       <c r="E584" s="11"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160023T00</v>
@@ -13824,7 +13932,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160023T00</v>
@@ -13842,7 +13950,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160023T00</v>
@@ -13860,7 +13968,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA03-6160023T00</v>
@@ -13878,7 +13986,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA14-6160023T00</v>
@@ -13896,7 +14004,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA03-6160024T00</v>
@@ -13914,7 +14022,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160024T00</v>
@@ -13932,7 +14040,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160024T00</v>
@@ -13950,7 +14058,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160024T00</v>
@@ -13968,7 +14076,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA08-6160024T00</v>
@@ -13986,7 +14094,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA03-6160025T00</v>
@@ -14004,7 +14112,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160025T00</v>
@@ -14022,7 +14130,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160025T00</v>
@@ -14040,7 +14148,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA09-6160025T00</v>
@@ -14058,7 +14166,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA01-6160026T00</v>
@@ -14076,7 +14184,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160026T00</v>
@@ -14094,7 +14202,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA04-6160027T03</v>
@@ -14112,7 +14220,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA07-6160027T03</v>
@@ -14130,7 +14238,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA11-6160027T03</v>
@@ -14148,7 +14256,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA06-6160027T03</v>
@@ -14166,7 +14274,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA10-6160027T03</v>
@@ -14184,7 +14292,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="str">
         <f t="shared" si="13"/>
         <v>CA08-6160027T03</v>
@@ -14202,7 +14310,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="str">
         <f t="shared" ref="A607:A670" si="14">_xlfn.CONCAT(B607,"-",C607)</f>
         <v>CA09-6160027T03</v>
@@ -14220,7 +14328,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160030T00</v>
@@ -14238,7 +14346,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160030T00</v>
@@ -14256,7 +14364,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6160030T00</v>
@@ -14274,7 +14382,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6160030T00</v>
@@ -14292,7 +14400,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160031T00</v>
@@ -14310,7 +14418,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6160032T00</v>
@@ -14328,7 +14436,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA08-6160032T00</v>
@@ -14346,7 +14454,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6160032T00</v>
@@ -14364,7 +14472,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160032T00</v>
@@ -14382,7 +14490,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA15-6160032T00</v>
@@ -14400,7 +14508,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA02-6160032T00</v>
@@ -14418,7 +14526,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA10-6160032T00</v>
@@ -14436,7 +14544,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160034T00</v>
@@ -14454,7 +14562,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160034T00</v>
@@ -14472,7 +14580,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6160035T00</v>
@@ -14490,7 +14598,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6160035T00</v>
@@ -14508,7 +14616,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA02-6160035T00</v>
@@ -14526,7 +14634,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160035T00</v>
@@ -14544,7 +14652,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA08-6160035T00</v>
@@ -14562,7 +14670,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA10-6160035T00</v>
@@ -14580,7 +14688,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160035T00</v>
@@ -14598,7 +14706,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160036T00</v>
@@ -14616,7 +14724,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6160036T00</v>
@@ -14634,7 +14742,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6160036T00</v>
@@ -14652,7 +14760,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6160036T00</v>
@@ -14670,7 +14778,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160036T00</v>
@@ -14688,7 +14796,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6160037T00</v>
@@ -14706,7 +14814,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160037T00</v>
@@ -14724,7 +14832,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6160037T00</v>
@@ -14742,7 +14850,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA10-6160037T00</v>
@@ -14760,7 +14868,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6160037T00</v>
@@ -14778,7 +14886,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6160037T00</v>
@@ -14796,7 +14904,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6160038T00</v>
@@ -14814,7 +14922,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6160038T00</v>
@@ -14832,7 +14940,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6210001T00</v>
@@ -14848,7 +14956,7 @@
       </c>
       <c r="E642" s="11"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6210001T00</v>
@@ -14864,7 +14972,7 @@
       </c>
       <c r="E643" s="11"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA05-6210001T00</v>
@@ -14880,7 +14988,7 @@
       </c>
       <c r="E644" s="11"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6210002T00</v>
@@ -14898,7 +15006,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6210002T00</v>
@@ -14916,7 +15024,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA08-6240003T01</v>
@@ -14934,7 +15042,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA10-6240003T01</v>
@@ -14952,7 +15060,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA08-6240004T01</v>
@@ -14970,7 +15078,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA08-6240005T00</v>
@@ -14986,7 +15094,7 @@
       </c>
       <c r="E650" s="11"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA07-6250001T01</v>
@@ -15004,7 +15112,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6250001T01</v>
@@ -15022,7 +15130,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6250009T00</v>
@@ -15040,7 +15148,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA07-6250009T00</v>
@@ -15058,7 +15166,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6250010T00</v>
@@ -15076,7 +15184,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6250011T00</v>
@@ -15094,7 +15202,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA07-6250011T00</v>
@@ -15112,7 +15220,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6250011T00</v>
@@ -15130,7 +15238,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA07-6250012T00</v>
@@ -15148,7 +15256,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA06-6250012T00</v>
@@ -15166,7 +15274,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6260002T00</v>
@@ -15184,7 +15292,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6260003T01</v>
@@ -15202,7 +15310,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA02-6260003T01</v>
@@ -15220,7 +15328,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA10-6260003T01</v>
@@ -15238,7 +15346,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA09-6260003T01</v>
@@ -15256,7 +15364,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA01-6260003T01</v>
@@ -15274,7 +15382,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA05-6260003T01</v>
@@ -15292,7 +15400,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA14-6260003T01</v>
@@ -15310,7 +15418,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA03-6260004T01</v>
@@ -15328,7 +15436,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="9" t="str">
         <f t="shared" si="14"/>
         <v>CA02-6260004T01</v>
@@ -15346,7 +15454,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="str">
         <f t="shared" ref="A671:A734" si="15">_xlfn.CONCAT(B671,"-",C671)</f>
         <v>CA05-6260004T01</v>
@@ -15364,7 +15472,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6260004T01</v>
@@ -15382,7 +15490,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA10-6260004T01</v>
@@ -15400,7 +15508,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA03-6260005T00</v>
@@ -15418,7 +15526,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA05-6260005T00</v>
@@ -15436,7 +15544,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA03-6260007T00</v>
@@ -15454,7 +15562,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6260007T00</v>
@@ -15472,7 +15580,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6330001T00</v>
@@ -15490,7 +15598,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6330001T00</v>
@@ -15508,7 +15616,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA10-6330001T00</v>
@@ -15526,7 +15634,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA08-6330001T00</v>
@@ -15544,7 +15652,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6330004T00</v>
@@ -15562,7 +15670,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6330004T00</v>
@@ -15580,7 +15688,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6330004T00</v>
@@ -15598,7 +15706,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6330004T00</v>
@@ -15616,7 +15724,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA03-6330004T00</v>
@@ -15634,7 +15742,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6330004T00</v>
@@ -15652,7 +15760,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6330004T01</v>
@@ -15670,7 +15778,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA05-6330004T01</v>
@@ -15688,7 +15796,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6330004T01</v>
@@ -15706,7 +15814,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6330004T01</v>
@@ -15724,7 +15832,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6330005T00</v>
@@ -15742,7 +15850,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6330006T00</v>
@@ -15760,7 +15868,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6330006T00</v>
@@ -15778,7 +15886,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6330008T00</v>
@@ -15794,7 +15902,7 @@
       </c>
       <c r="E695" s="11"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6330010T00</v>
@@ -15810,7 +15918,7 @@
       </c>
       <c r="E696" s="11"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6330011T00</v>
@@ -15826,7 +15934,7 @@
       </c>
       <c r="E697" s="11"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6330016T00</v>
@@ -15842,7 +15950,7 @@
       </c>
       <c r="E698" s="11"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6330016T00</v>
@@ -15858,7 +15966,7 @@
       </c>
       <c r="E699" s="11"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6330016T00</v>
@@ -15874,7 +15982,7 @@
       </c>
       <c r="E700" s="11"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6330016T00</v>
@@ -15890,7 +15998,7 @@
       </c>
       <c r="E701" s="11"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6330016T00</v>
@@ -15906,7 +16014,7 @@
       </c>
       <c r="E702" s="11"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6330016T01</v>
@@ -15924,7 +16032,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA10-6330016T01</v>
@@ -15942,7 +16050,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6330016T01</v>
@@ -15960,7 +16068,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6330017T00</v>
@@ -15976,7 +16084,7 @@
       </c>
       <c r="E706" s="11"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA10-6340004T00</v>
@@ -15994,7 +16102,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6340004T00</v>
@@ -16012,7 +16120,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6350014T00</v>
@@ -16030,7 +16138,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6350014T00</v>
@@ -16048,7 +16156,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6350014T00</v>
@@ -16066,7 +16174,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA14-6350017T00</v>
@@ -16084,7 +16192,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6350018T00</v>
@@ -16100,7 +16208,7 @@
       </c>
       <c r="E713" s="11"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6350018T00A</v>
@@ -16118,7 +16226,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6360003T00</v>
@@ -16136,7 +16244,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6360003T00</v>
@@ -16154,7 +16262,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA08-6360003T00</v>
@@ -16172,7 +16280,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA03-6360003T00</v>
@@ -16190,7 +16298,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA01-6360004T01</v>
@@ -16208,7 +16316,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA03-6360004T01</v>
@@ -16226,7 +16334,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6430012T00</v>
@@ -16244,7 +16352,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6430012T00</v>
@@ -16262,7 +16370,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA07-6430012T00</v>
@@ -16280,7 +16388,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6430012T01</v>
@@ -16298,7 +16406,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6430012T01</v>
@@ -16316,7 +16424,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA07-6430015T00</v>
@@ -16334,7 +16442,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6430015T00</v>
@@ -16352,7 +16460,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA09-6430015T00</v>
@@ -16370,7 +16478,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA08-6430015T00</v>
@@ -16388,7 +16496,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA02-6430016T00</v>
@@ -16406,7 +16514,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA08-6430016T00</v>
@@ -16424,7 +16532,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA06-6430017T00</v>
@@ -16442,7 +16550,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA11-6430017T00</v>
@@ -16460,7 +16568,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="9" t="str">
         <f t="shared" si="15"/>
         <v>CA04-6430018T00</v>
@@ -16478,7 +16586,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="9" t="str">
         <f t="shared" ref="A735:A796" si="16">_xlfn.CONCAT(B735,"-",C735)</f>
         <v>CA06-6430018T00</v>
@@ -16496,7 +16604,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA11-6430018T00</v>
@@ -16514,7 +16622,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA07-6430018T00</v>
@@ -16532,7 +16640,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6430018T01</v>
@@ -16550,7 +16658,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA11-6430019T00</v>
@@ -16568,7 +16676,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6430019T00</v>
@@ -16586,7 +16694,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA11-6430019T01</v>
@@ -16604,7 +16712,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6430019T01</v>
@@ -16622,7 +16730,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA02-6430020T00</v>
@@ -16640,7 +16748,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA10-6430020T00</v>
@@ -16658,7 +16766,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6430020T00</v>
@@ -16676,7 +16784,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6430020T00</v>
@@ -16694,7 +16802,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6430020T00</v>
@@ -16712,7 +16820,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6440002T02</v>
@@ -16730,7 +16838,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6440002T02</v>
@@ -16748,7 +16856,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6440002T02</v>
@@ -16766,7 +16874,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA12-6440002T02</v>
@@ -16784,7 +16892,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6440006T00</v>
@@ -16802,7 +16910,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6440006T00</v>
@@ -16820,7 +16928,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6440006T00</v>
@@ -16838,7 +16946,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA10-6450007T00</v>
@@ -16854,7 +16962,7 @@
       </c>
       <c r="E755" s="11"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA07-6610001T00</v>
@@ -16872,7 +16980,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6610002T00</v>
@@ -16890,7 +16998,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6620001T00</v>
@@ -16908,7 +17016,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6620002T00</v>
@@ -16926,7 +17034,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6740001T00</v>
@@ -16944,7 +17052,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6740001T00</v>
@@ -16962,7 +17070,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6740001T00</v>
@@ -16980,7 +17088,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-6740001T00</v>
@@ -16998,7 +17106,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6740001T00</v>
@@ -17016,7 +17124,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6740002T00</v>
@@ -17034,7 +17142,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA02-6780001T00</v>
@@ -17052,7 +17160,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6780002T00</v>
@@ -17068,7 +17176,7 @@
       </c>
       <c r="E767" s="11"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA08-6780004T00</v>
@@ -17086,7 +17194,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA08-6780005T00</v>
@@ -17104,7 +17212,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-6820001T00</v>
@@ -17122,7 +17230,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-6820002T00</v>
@@ -17140,7 +17248,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-5710020T00</v>
@@ -17158,7 +17266,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA04-6430001T00</v>
@@ -17176,7 +17284,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-0210190T00</v>
@@ -17194,7 +17302,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-0130121T00</v>
@@ -17212,7 +17320,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA07-5880020T00</v>
@@ -17230,7 +17338,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6160039T00</v>
@@ -17248,7 +17356,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-0100016T01</v>
@@ -17266,7 +17374,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6350018T01</v>
@@ -17284,7 +17392,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-5710020T00</v>
@@ -17302,7 +17410,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-5710020T00</v>
@@ -17320,7 +17428,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA04-0220012T05</v>
@@ -17338,7 +17446,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6060001T01</v>
@@ -17356,7 +17464,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6060001T01</v>
@@ -17374,7 +17482,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA05-6160039T00</v>
@@ -17392,7 +17500,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA07-0130121T00</v>
@@ -17410,7 +17518,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA07-5680065T00</v>
@@ -17428,7 +17536,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA08-5880022T00</v>
@@ -17446,7 +17554,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA08-5520031T00</v>
@@ -17464,7 +17572,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA08-6430014T00</v>
@@ -17482,7 +17590,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-5860006T00</v>
@@ -17500,7 +17608,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6350014T01</v>
@@ -17518,7 +17626,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA11-0020084T01</v>
@@ -17536,7 +17644,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6260004T01</v>
@@ -17554,7 +17662,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA19-5600015T00</v>
@@ -17572,7 +17680,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA02-3770010T04</v>
@@ -17590,7 +17698,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="9" t="str">
         <f t="shared" ref="A797:A808" si="17">_xlfn.CONCAT(B797,"-",C797)</f>
         <v>CA05-0220032T03</v>
@@ -17608,7 +17716,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA06-3770010T04</v>
@@ -17626,7 +17734,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA06-6160035T00</v>
@@ -17644,7 +17752,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA06-6440006T00</v>
@@ -17662,7 +17770,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA09-0220012T05</v>
@@ -17680,7 +17788,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA09-0210177T00</v>
@@ -17698,7 +17806,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA10-6830001T00</v>
@@ -17716,7 +17824,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA11-5800023T00</v>
@@ -17734,7 +17842,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA14-6350014T01</v>
@@ -17752,7 +17860,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA14-5710015T00</v>
@@ -17770,7 +17878,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA14-6160039T00</v>
@@ -17788,7 +17896,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="9" t="str">
         <f t="shared" si="17"/>
         <v>CA04-6260004T01</v>
@@ -17806,7 +17914,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="9" t="s">
         <v>673</v>
       </c>
@@ -17823,7 +17931,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="9" t="s">
         <v>675</v>
       </c>
@@ -17840,7 +17948,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="9" t="s">
         <v>677</v>
       </c>
@@ -17857,7 +17965,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="9" t="s">
         <v>679</v>
       </c>
@@ -17874,7 +17982,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="9" t="s">
         <v>681</v>
       </c>
@@ -17891,7 +17999,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="9" t="s">
         <v>683</v>
       </c>
@@ -17908,7 +18016,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="9" t="s">
         <v>684</v>
       </c>
@@ -17925,7 +18033,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="9" t="s">
         <v>687</v>
       </c>
@@ -17942,7 +18050,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="9" t="s">
         <v>690</v>
       </c>
@@ -17959,7 +18067,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>691</v>
       </c>
@@ -17976,7 +18084,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="9" t="s">
         <v>694</v>
       </c>
@@ -17993,7 +18101,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="9" t="s">
         <v>697</v>
       </c>
@@ -18010,7 +18118,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="9" t="s">
         <v>699</v>
       </c>
@@ -18027,7 +18135,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="9" t="s">
         <v>702</v>
       </c>
@@ -18044,7 +18152,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="9" t="s">
         <v>704</v>
       </c>
@@ -18061,7 +18169,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="9" t="s">
         <v>705</v>
       </c>
@@ -18078,7 +18186,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="9" t="s">
         <v>708</v>
       </c>
@@ -18095,7 +18203,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="9" t="s">
         <v>709</v>
       </c>
@@ -18112,7 +18220,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>822</v>
       </c>
@@ -18129,7 +18237,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="9" t="s">
         <v>708</v>
       </c>
@@ -18146,7 +18254,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="9" t="s">
         <v>712</v>
       </c>
@@ -18163,7 +18271,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="9" t="s">
         <v>714</v>
       </c>
@@ -18180,7 +18288,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="9" t="s">
         <v>715</v>
       </c>
@@ -18197,7 +18305,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="9" t="s">
         <v>717</v>
       </c>
@@ -18214,7 +18322,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="9" t="s">
         <v>852</v>
       </c>
@@ -18231,7 +18339,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="9" t="s">
         <v>721</v>
       </c>
@@ -18248,7 +18356,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="9" t="s">
         <v>722</v>
       </c>
@@ -18265,7 +18373,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="9" t="s">
         <v>724</v>
       </c>
@@ -18282,7 +18390,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="9" t="s">
         <v>725</v>
       </c>
@@ -18299,7 +18407,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="9" t="s">
         <v>726</v>
       </c>
@@ -18316,7 +18424,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="9" t="s">
         <v>727</v>
       </c>
@@ -18333,7 +18441,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="9" t="s">
         <v>728</v>
       </c>
@@ -18350,7 +18458,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="9" t="s">
         <v>729</v>
       </c>
@@ -18367,7 +18475,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="9" t="s">
         <v>731</v>
       </c>
@@ -18384,7 +18492,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="9" t="s">
         <v>733</v>
       </c>
@@ -18401,7 +18509,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="9" t="s">
         <v>734</v>
       </c>
@@ -18418,7 +18526,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9" t="s">
         <v>736</v>
       </c>
@@ -18435,7 +18543,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="9" t="s">
         <v>737</v>
       </c>
@@ -18452,7 +18560,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9" t="s">
         <v>738</v>
       </c>
@@ -18469,7 +18577,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="9" t="str">
         <f>_xlfn.CONCAT(B848,"-",C848)</f>
         <v>CA11-0020075T04</v>
@@ -18487,7 +18595,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="9" t="s">
         <v>740</v>
       </c>
@@ -18504,7 +18612,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>741</v>
       </c>
@@ -18521,7 +18629,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="9" t="s">
         <v>742</v>
       </c>
@@ -18538,7 +18646,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="9" t="s">
         <v>743</v>
       </c>
@@ -18555,7 +18663,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="9" t="s">
         <v>746</v>
       </c>
@@ -18572,12 +18680,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E854" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="9" t="s">
         <v>747</v>
       </c>
@@ -18594,7 +18702,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="9" t="s">
         <v>748</v>
       </c>
@@ -18611,7 +18719,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="9" t="s">
         <v>749</v>
       </c>
@@ -18628,7 +18736,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="9" t="s">
         <v>750</v>
       </c>
@@ -18645,7 +18753,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="9" t="str">
         <f>_xlfn.CONCAT(B859,"-",C859)</f>
         <v>CA11-0220108T00</v>
@@ -18663,7 +18771,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="9" t="s">
         <v>751</v>
       </c>
@@ -18680,7 +18788,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="9" t="s">
         <v>752</v>
       </c>
@@ -18697,7 +18805,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="9" t="s">
         <v>755</v>
       </c>
@@ -18714,7 +18822,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9" t="s">
         <v>758</v>
       </c>
@@ -18731,7 +18839,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="9" t="str">
         <f>_xlfn.CONCAT(B864,"-",C864)</f>
         <v>CA05-3070002T00A</v>
@@ -18749,7 +18857,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="9" t="str">
         <f>_xlfn.CONCAT(B865,"-",C865)</f>
         <v>CA01-6160034T00A</v>
@@ -18767,7 +18875,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="9" t="str">
         <f>_xlfn.CONCAT(B866,"-",C866)</f>
         <v>CA01-0220032T03A</v>
@@ -18785,7 +18893,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="18" t="s">
         <v>762</v>
       </c>
@@ -18802,7 +18910,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="18" t="s">
         <v>763</v>
       </c>
@@ -18819,7 +18927,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="18" t="s">
         <v>764</v>
       </c>
@@ -18830,7 +18938,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="18" t="s">
         <v>764</v>
       </c>
@@ -18841,7 +18949,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="18" t="s">
         <v>765</v>
       </c>
@@ -18852,7 +18960,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="18" t="s">
         <v>765</v>
       </c>
@@ -18863,7 +18971,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="18" t="s">
         <v>766</v>
       </c>
@@ -18877,7 +18985,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="18" t="s">
         <v>766</v>
       </c>
@@ -18888,7 +18996,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="18" t="s">
         <v>767</v>
       </c>
@@ -18896,7 +19004,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="18" t="s">
         <v>767</v>
       </c>
@@ -18904,7 +19012,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="18" t="s">
         <v>767</v>
       </c>
@@ -18912,7 +19020,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="18" t="s">
         <v>768</v>
       </c>
@@ -18923,7 +19031,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="18" t="s">
         <v>768</v>
       </c>
@@ -18934,7 +19042,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="18" t="s">
         <v>768</v>
       </c>
@@ -18945,7 +19053,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="18" t="s">
         <v>769</v>
       </c>
@@ -18956,7 +19064,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="18" t="s">
         <v>769</v>
       </c>
@@ -18967,7 +19075,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="18" t="s">
         <v>769</v>
       </c>
@@ -18978,13 +19086,13 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="e">
         <f>_xlfn.CONCAT(#REF!,"-",#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="9" t="str">
         <f>_xlfn.CONCAT(B885,"-",C885)</f>
         <v>CA05-0210116T01</v>
@@ -19002,7 +19110,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>782</v>
       </c>
@@ -19010,7 +19118,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>783</v>
       </c>
@@ -19027,7 +19135,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="9"/>
       <c r="B888" s="12" t="s">
         <v>56</v>
@@ -19042,7 +19150,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="9" t="str">
         <f t="shared" ref="A889:A894" si="18">_xlfn.CONCAT(B889,"-",C889)</f>
         <v>CA07-0580008T00</v>
@@ -19060,7 +19168,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="9" t="str">
         <f t="shared" si="18"/>
         <v>CA14-6160006T00</v>
@@ -19078,7 +19186,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="9" t="str">
         <f t="shared" si="18"/>
         <v>CA14-6160008T00A</v>
@@ -19096,7 +19204,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9" t="str">
         <f t="shared" si="18"/>
         <v>CA04-0220032T03A</v>
@@ -19114,7 +19222,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="9" t="str">
         <f t="shared" si="18"/>
         <v>CA01-0020084T01</v>
@@ -19132,7 +19240,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="9" t="str">
         <f t="shared" si="18"/>
         <v>CA15-0220075T01</v>
@@ -19150,7 +19258,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="9" t="s">
         <v>795</v>
       </c>
@@ -19167,7 +19275,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>798</v>
       </c>
@@ -19178,7 +19286,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>800</v>
       </c>
@@ -19189,7 +19297,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>802</v>
       </c>
@@ -19206,12 +19314,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D899">
         <v>1832</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>803</v>
       </c>
@@ -19228,7 +19336,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="901" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="9" t="str">
         <f t="shared" ref="A901:A918" si="19">_xlfn.CONCAT(B901,"-",C901)</f>
         <v>CA01-0020075T04</v>
@@ -19246,7 +19354,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="902" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A902" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA02-6160039T00</v>
@@ -19264,7 +19372,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="9" t="str">
         <f>_xlfn.CONCAT(B903,"-",C903)</f>
         <v>CA04-0130123T00</v>
@@ -19282,7 +19390,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA05-0210193T00</v>
@@ -19300,7 +19408,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA06-6160024T00</v>
@@ -19318,7 +19426,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA06-6160041T00</v>
@@ -19336,7 +19444,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA06-0220115T00</v>
@@ -19354,7 +19462,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA07-6250012T01</v>
@@ -19372,7 +19480,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA10-5650008T00</v>
@@ -19390,7 +19498,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA10-5650005T00</v>
@@ -19408,7 +19516,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA11-6030009T00</v>
@@ -19426,7 +19534,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA11-6030010T00</v>
@@ -19444,7 +19552,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-6060001T58</v>
@@ -19462,7 +19570,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-6060001T01</v>
@@ -19478,7 +19586,7 @@
       </c>
       <c r="E914"/>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-5650008T00</v>
@@ -19496,7 +19604,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-5850083T00</v>
@@ -19514,7 +19622,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-5850064T00</v>
@@ -19532,7 +19640,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="9" t="str">
         <f t="shared" si="19"/>
         <v>CA14-5770001T00</v>
@@ -19550,7 +19658,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="9" t="s">
         <v>818</v>
       </c>
@@ -19567,7 +19675,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="9" t="str">
         <f>_xlfn.CONCAT(B920,"-",C920)</f>
         <v>CA06-0020075T04</v>
@@ -19585,7 +19693,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="9" t="str">
         <f>_xlfn.CONCAT(B921,"-",C921)</f>
         <v>CA10-0190001T01</v>
@@ -19638,7 +19746,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="9" t="str">
         <f>_xlfn.CONCAT(B924,"-",C924)</f>
         <v>CA04-5850146T00</v>
@@ -19656,7 +19764,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="9" t="str">
         <f>_xlfn.CONCAT(B925,"-",C925)</f>
         <v>CA02-5880005T00A</v>
@@ -19674,7 +19782,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="9" t="str">
         <f>_xlfn.CONCAT(B926,"-",C926)</f>
         <v>CA09-6160034T00A</v>
@@ -19692,7 +19800,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>824</v>
       </c>
@@ -19709,7 +19817,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="9" t="str">
         <f>_xlfn.CONCAT(B928,"-",C928)</f>
         <v>CA15-0190001T01</v>
@@ -19727,7 +19835,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="9" t="str">
         <f t="shared" ref="A929" si="20">_xlfn.CONCAT(B929,"-",C929)</f>
         <v>CA04-5850147T00</v>
@@ -19745,7 +19853,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>825</v>
       </c>
@@ -19756,7 +19864,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="9" t="s">
         <v>827</v>
       </c>
@@ -19773,7 +19881,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="9" t="str">
         <f t="shared" ref="A932:A934" si="21">_xlfn.CONCAT(B932,"-",C932)</f>
         <v>CA04-6240003T01</v>
@@ -19791,7 +19899,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="9" t="str">
         <f t="shared" si="21"/>
         <v>CA03-5710016T01A</v>
@@ -19809,7 +19917,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="9" t="str">
         <f t="shared" si="21"/>
         <v>CA09-0580008T00</v>
@@ -19824,7 +19932,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="9" t="str">
         <f>_xlfn.CONCAT(B935,"-",C935)</f>
         <v>CA05-0210172T01A</v>
@@ -19842,7 +19950,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="26" t="str">
         <f>_xlfn.CONCAT(B936,"-",C936)</f>
         <v>CA09-0580008T00</v>
@@ -19860,7 +19968,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="26" t="str">
         <f>_xlfn.CONCAT(B937,"-",C937)</f>
         <v>CA09-0580009T00</v>
@@ -19878,7 +19986,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="9" t="str">
         <f t="shared" ref="A938:A939" si="22">_xlfn.CONCAT(B938,"-",C938)</f>
         <v>CA01-3770010T04A</v>
@@ -19896,7 +20004,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="9" t="str">
         <f t="shared" si="22"/>
         <v>CA04-6160024T00A</v>
@@ -19914,7 +20022,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="9" t="s">
         <v>834</v>
       </c>
@@ -19931,7 +20039,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>835</v>
       </c>
@@ -19948,7 +20056,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="9" t="str">
         <f t="shared" ref="A942:A943" si="23">_xlfn.CONCAT(B942,"-",C942)</f>
         <v>CA09-0020082T00</v>
@@ -19966,7 +20074,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="9" t="str">
         <f t="shared" si="23"/>
         <v>CA04-2430028T00</v>
@@ -19984,7 +20092,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="9" t="s">
         <v>836</v>
       </c>
@@ -20001,7 +20109,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="9" t="str">
         <f t="shared" ref="A945:A947" si="24">_xlfn.CONCAT(B945,"-",C945)</f>
         <v>CA14-6830001T00</v>
@@ -20019,7 +20127,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="9" t="str">
         <f t="shared" si="24"/>
         <v>CA14-6830001T00W</v>
@@ -20037,7 +20145,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="9" t="str">
         <f t="shared" si="24"/>
         <v>CA07-5520015T12</v>
@@ -20055,12 +20163,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D948" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="9" t="str">
         <f>_xlfn.CONCAT(B949,"-",C949)</f>
         <v>CA05-0210140T03W</v>
@@ -20078,7 +20186,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="9" t="str">
         <f t="shared" ref="A950" si="25">_xlfn.CONCAT(B950,"-",C950)</f>
         <v>CA08-5850135T00</v>
@@ -20096,7 +20204,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="9" t="str">
         <f>_xlfn.CONCAT(B951,"-",C951)</f>
         <v>CA05-0210004T03B</v>
@@ -20114,7 +20222,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="9" t="str">
         <f t="shared" ref="A952" si="26">_xlfn.CONCAT(B952,"-",C952)</f>
         <v>CA04-6260007T00</v>
@@ -20132,7 +20240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="9" t="str">
         <f t="shared" ref="A953" si="27">_xlfn.CONCAT(B953,"-",C953)</f>
         <v>CA04-6260007T00A</v>
@@ -20150,7 +20258,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="9" t="s">
         <v>750</v>
       </c>
@@ -20165,7 +20273,7 @@
       </c>
       <c r="E954" s="11"/>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="9" t="str">
         <f t="shared" ref="A955:A957" si="28">_xlfn.CONCAT(B955,"-",C955)</f>
         <v>CA07-5880021T00</v>
@@ -20183,7 +20291,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="9" t="str">
         <f t="shared" si="28"/>
         <v>CA11-5520001T04A</v>
@@ -20201,7 +20309,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="9" t="str">
         <f t="shared" si="28"/>
         <v>CA09-0020084T01</v>
@@ -20219,7 +20327,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="9" t="s">
         <v>848</v>
       </c>
@@ -20236,7 +20344,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="9" t="s">
         <v>719</v>
       </c>
@@ -20253,7 +20361,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="9" t="str">
         <f t="shared" ref="A960" si="29">_xlfn.CONCAT(B960,"-",C960)</f>
         <v>CA01-5650005T00</v>
@@ -20271,7 +20379,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="9" t="s">
         <v>719</v>
       </c>
@@ -20291,7 +20399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="9" t="str">
         <f t="shared" ref="A962" si="30">_xlfn.CONCAT(B962,"-",C962)</f>
         <v>CA09-0130111T00</v>
@@ -20309,7 +20417,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="9" t="s">
         <v>854</v>
       </c>
@@ -20326,7 +20434,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="9" t="str">
         <f t="shared" ref="A964:A965" si="31">_xlfn.CONCAT(B964,"-",C964)</f>
         <v>CA11-0220114T00A</v>
@@ -20344,7 +20452,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="9" t="str">
         <f t="shared" si="31"/>
         <v>CA06-5520001T04A</v>
@@ -20362,7 +20470,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="9" t="s">
         <v>858</v>
       </c>
@@ -20379,7 +20487,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="9" t="s">
         <v>857</v>
       </c>
@@ -20396,7 +20504,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="9" t="str">
         <f>_xlfn.CONCAT(B968,"-",C968)</f>
         <v>CA04-0190001T01</v>
@@ -20414,7 +20522,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="9" t="str">
         <f t="shared" ref="A969:A972" si="32">_xlfn.CONCAT(B969,"-",C969)</f>
         <v>CA05-6620001T00</v>
@@ -20432,7 +20540,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="9" t="str">
         <f t="shared" si="32"/>
         <v>CA09-5710016T01A</v>
@@ -20450,7 +20558,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="9" t="str">
         <f t="shared" si="32"/>
         <v>CA15-0130086T00</v>
@@ -20468,7 +20576,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="9" t="str">
         <f t="shared" si="32"/>
         <v>CA04-6430020T00</v>
@@ -20486,7 +20594,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="9" t="s">
         <v>859</v>
       </c>
@@ -20503,7 +20611,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="9" t="str">
         <f>_xlfn.CONCAT(B974,"-",C974)</f>
         <v>CA14-6160034T00A</v>
@@ -20521,7 +20629,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="9" t="str">
         <f t="shared" ref="A975:A977" si="33">_xlfn.CONCAT(B975,"-",C975)</f>
         <v>CA03-6820002T02</v>
@@ -20539,7 +20647,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="9" t="str">
         <f t="shared" si="33"/>
         <v>CA03-0100003T00</v>
@@ -20557,7 +20665,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="9" t="str">
         <f t="shared" si="33"/>
         <v>CA12-0190026T01W</v>
@@ -20575,7 +20683,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>863</v>
       </c>
@@ -20592,7 +20700,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="9" t="str">
         <f>_xlfn.CONCAT(B979,"-",C979)</f>
         <v>CA05-3070002T00A</v>
@@ -20610,7 +20718,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="9" t="str">
         <f t="shared" ref="A980:A983" si="34">_xlfn.CONCAT(B980,"-",C980)</f>
         <v>CA09-3070002T00A</v>
@@ -20628,7 +20736,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="9" t="str">
         <f t="shared" si="34"/>
         <v>CA09-3070002T00A</v>
@@ -20646,7 +20754,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="9" t="str">
         <f t="shared" si="34"/>
         <v>CA04-0130123T00A</v>
@@ -20664,7 +20772,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="9" t="str">
         <f t="shared" si="34"/>
         <v>CA14-6820003T00</v>
@@ -20682,7 +20790,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="9" t="str">
         <f t="shared" ref="A984:A986" si="35">_xlfn.CONCAT(B984,"-",C984)</f>
         <v>CA16-0130119T00A</v>
@@ -20700,7 +20808,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="9" t="str">
         <f t="shared" si="35"/>
         <v>CA05-6830001T00W</v>
@@ -20718,7 +20826,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" t="str">
         <f t="shared" si="35"/>
         <v>CA14-5800021T00A</v>
@@ -20736,7 +20844,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>871</v>
       </c>
@@ -20753,7 +20861,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="9" t="s">
         <v>702</v>
       </c>
@@ -20770,7 +20878,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="9" t="str">
         <f>_xlfn.CONCAT(B989,"-",C989)</f>
         <v>CA01-6740003T00</v>
@@ -20788,7 +20896,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="9" t="str">
         <f>_xlfn.CONCAT(B990,"-",C990)</f>
         <v>CA14-6740003T00</v>
@@ -20806,7 +20914,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="str">
         <f t="shared" ref="A991" si="36">_xlfn.CONCAT(B991,"-",C991)</f>
         <v>CA09-5800021T00A</v>
@@ -20824,7 +20932,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="9" t="s">
         <v>875</v>
       </c>
@@ -20841,7 +20949,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="9" t="str">
         <f t="shared" ref="A993:A994" si="37">_xlfn.CONCAT(B993,"-",C993)</f>
         <v>CA10-5810072T61</v>
@@ -20859,7 +20967,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="9" t="str">
         <f t="shared" si="37"/>
         <v>CA01-5930030T00</v>
@@ -20877,7 +20985,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>879</v>
       </c>
@@ -20888,7 +20996,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>881</v>
       </c>
@@ -20905,7 +21013,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>884</v>
       </c>
@@ -20922,7 +21030,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="9" t="s">
         <v>886</v>
       </c>
@@ -20939,7 +21047,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="9" t="s">
         <v>887</v>
       </c>
@@ -20956,9 +21064,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="9" t="str">
-        <f t="shared" ref="A1000:A1004" si="38">_xlfn.CONCAT(B1000,"-",C1000)</f>
+        <f t="shared" ref="A1000:A1005" si="38">_xlfn.CONCAT(B1000,"-",C1000)</f>
         <v>CA04-0130119T00A</v>
       </c>
       <c r="B1000" s="16" t="s">
@@ -20974,7 +21082,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="9" t="str">
         <f t="shared" si="38"/>
         <v>CA05-6180005T00</v>
@@ -20992,7 +21100,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="9" t="str">
         <f t="shared" si="38"/>
         <v>CA10-3070002T00A</v>
@@ -21010,7 +21118,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="9" t="str">
         <f t="shared" si="38"/>
         <v>CA07-6340004T00</v>
@@ -21028,7 +21136,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="9" t="str">
         <f t="shared" si="38"/>
         <v>CA07-0220118T00</v>
@@ -21046,6 +21154,503 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1005" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>CA02-5880002T00A</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1005" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D1005" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1005" s="11">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1006" t="str">
+        <f>_xlfn.CONCAT(B1006,"-",C1006)</f>
+        <v>CA01-5930030T00</v>
+      </c>
+      <c r="B1006" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1006" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1006" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1006">
+        <f>VLOOKUP(C1006,Planilha1!$C:$E,3,0)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1007" t="str">
+        <f t="shared" ref="A1007:A1031" si="39">_xlfn.CONCAT(B1007,"-",C1007)</f>
+        <v>CA01-6740003T00</v>
+      </c>
+      <c r="B1007" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1007" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1007" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="E1007">
+        <f>VLOOKUP(C1007,Planilha1!$C:$E,3,0)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1008" t="str">
+        <f t="shared" si="39"/>
+        <v>CA02-6330020T01</v>
+      </c>
+      <c r="B1008" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1008" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1008" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1008">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1009" t="str">
+        <f t="shared" si="39"/>
+        <v>CA04-0130125T00</v>
+      </c>
+      <c r="B1009" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1009" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1009" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1009">
+        <f>VLOOKUP(C1009,Planilha1!$C:$E,3,0)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1010" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-5810085T53</v>
+      </c>
+      <c r="B1010" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1010" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1010" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1010">
+        <f>VLOOKUP(C1010,Planilha1!$C:$E,3,0)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1011" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-5960022T00</v>
+      </c>
+      <c r="B1011" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1011" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1011" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1011">
+        <f>VLOOKUP(C1011,Planilha1!$C:$E,3,0)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1012" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180004T00</v>
+      </c>
+      <c r="B1012" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1012" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1012" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1012">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1013" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180005T00</v>
+      </c>
+      <c r="B1013" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1013" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1013" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1013">
+        <f>VLOOKUP(C1013,Planilha1!$C:$E,3,0)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1014" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180006T00</v>
+      </c>
+      <c r="B1014" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1014" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="D1014" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1014">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1015" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180007T00</v>
+      </c>
+      <c r="B1015" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1015" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1015" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E1015">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1016" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180008T00</v>
+      </c>
+      <c r="B1016" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1016" s="30" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1016" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="E1016">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1017" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6180011T00</v>
+      </c>
+      <c r="B1017" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1017" s="30" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1017" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1017">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1018" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6430024T00</v>
+      </c>
+      <c r="B1018" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1018" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1018" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1018">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1019" t="str">
+        <f t="shared" si="39"/>
+        <v>CA05-6830001T00</v>
+      </c>
+      <c r="B1019" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1019" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1019" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1019">
+        <f>VLOOKUP(C1019,Planilha1!$C:$E,3,0)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1020" t="str">
+        <f t="shared" si="39"/>
+        <v>CA06-5680081T00</v>
+      </c>
+      <c r="B1020" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1020" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1020" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1020">
+        <f>VLOOKUP(C1020,Planilha1!$C:$E,3,0)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1021" t="str">
+        <f t="shared" si="39"/>
+        <v>CA07-6060013T00</v>
+      </c>
+      <c r="B1021" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1021" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1021" s="31" t="s">
+        <v>910</v>
+      </c>
+      <c r="E1021">
+        <f>VLOOKUP(C1021,Planilha1!$C:$E,3,0)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1022" t="str">
+        <f t="shared" si="39"/>
+        <v>CA07-6330004T01</v>
+      </c>
+      <c r="B1022" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1022" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1022" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1022">
+        <f>VLOOKUP(C1022,Planilha1!$C:$E,3,0)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1023" t="str">
+        <f t="shared" si="39"/>
+        <v>CA07-6330023_27</v>
+      </c>
+      <c r="B1023" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1023" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1023" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="E1023">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1024" t="str">
+        <f t="shared" si="39"/>
+        <v>CA07-6330026T00</v>
+      </c>
+      <c r="B1024" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1024" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="D1024" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1024">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1025" t="str">
+        <f t="shared" si="39"/>
+        <v>CA08-5860005T00</v>
+      </c>
+      <c r="B1025" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1025" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1025" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1025">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1026" t="str">
+        <f t="shared" si="39"/>
+        <v>CA08-D58500784_</v>
+      </c>
+      <c r="B1026" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1026" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1026" s="31" t="s">
+        <v>917</v>
+      </c>
+      <c r="E1026">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1027" t="str">
+        <f t="shared" si="39"/>
+        <v>CA09-6260007T00</v>
+      </c>
+      <c r="B1027" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1027" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1027" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1027">
+        <f>VLOOKUP(C1027,Planilha1!$C:$E,3,0)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1028" t="str">
+        <f t="shared" si="39"/>
+        <v>CA09-6330021T00</v>
+      </c>
+      <c r="B1028" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1028" s="30" t="s">
+        <v>918</v>
+      </c>
+      <c r="D1028" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="E1028">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1029" t="str">
+        <f t="shared" si="39"/>
+        <v>CA10-3070002T00</v>
+      </c>
+      <c r="B1029" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1029" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1029" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1029">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1030" t="str">
+        <f t="shared" si="39"/>
+        <v>CA11-D6790004_0</v>
+      </c>
+      <c r="B1030" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1030" s="30" t="s">
+        <v>921</v>
+      </c>
+      <c r="D1030" s="31" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1030">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1031" t="str">
+        <f t="shared" si="39"/>
+        <v>CA16-0130125T00</v>
+      </c>
+      <c r="B1031" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1031" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1031" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1031">
+        <v>18000</v>
+      </c>
+    </row>
     <row r="1046863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1046863">
         <v>0</v>
@@ -21053,7 +21658,7 @@
     </row>
     <row r="1046864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046864" s="9" t="str">
-        <f t="shared" ref="A1046864" si="39">_xlfn.CONCAT(B1046864,"-",C1046864)</f>
+        <f t="shared" ref="A1046864" si="40">_xlfn.CONCAT(B1046864,"-",C1046864)</f>
         <v>CA01-0020075T04</v>
       </c>
       <c r="B1046864" s="6" t="s">
@@ -21094,7 +21699,7 @@
     </row>
     <row r="1046867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046867" s="9" t="str">
-        <f t="shared" ref="A1046867" si="40">_xlfn.CONCAT(B1046867,"-",C1046867)</f>
+        <f t="shared" ref="A1046867" si="41">_xlfn.CONCAT(B1046867,"-",C1046867)</f>
         <v>CA14-6160006T00</v>
       </c>
       <c r="B1046867" s="12" t="s">
@@ -21157,7 +21762,14 @@
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:F1003" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}"/>
+  <autoFilter ref="A1:F1031" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CART BONEWAX (BRRM80138) - 58500784_02"/>
+        <filter val="CART ETHICON BONEWAX CERA ÓSSEA W31C (BRRM73133)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/relatorios/static/Velocidade.xlsx
+++ b/relatorios/static/Velocidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\COLAGEM\Velocidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839D244-3C65-4AE8-9ED9-8727C4B882C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD994B4-4011-4042-A919-8213054A8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="480" windowWidth="20460" windowHeight="11040" xr2:uid="{79BDCEDD-E6D2-4397-BCDD-0E4668BB6F30}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1031</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1030</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="923">
   <si>
     <t>Conc</t>
   </si>
@@ -3426,10 +3426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}">
   <sheetPr codeName="Planilha1" filterMode="1"/>
-  <dimension ref="A1:G1046870"/>
+  <dimension ref="A1:G1046869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1028" sqref="B1028"/>
+      <selection activeCell="E1031" sqref="E1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11151,7 +11151,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA08-5850061T00</v>
@@ -11169,7 +11169,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="str">
         <f t="shared" si="10"/>
         <v>CA07-5850061T00</v>
@@ -17034,7 +17034,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA01-6740001T00</v>
@@ -17052,7 +17052,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA14-6740001T00</v>
@@ -17070,7 +17070,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA09-6740001T00</v>
@@ -17088,7 +17088,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA03-6740001T00</v>
@@ -17106,7 +17106,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="9" t="str">
         <f t="shared" si="16"/>
         <v>CA06-6740001T00</v>
@@ -18288,7 +18288,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="9" t="s">
         <v>715</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="9" t="s">
         <v>820</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="9" t="str">
         <f>_xlfn.CONCAT(B923,"-",C923)</f>
         <v>CA08-5850061T00A</v>
@@ -19864,7 +19864,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="9" t="s">
         <v>827</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="9" t="s">
         <v>834</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="967" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" s="9" t="s">
         <v>857</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="9" t="str">
         <f>_xlfn.CONCAT(B989,"-",C989)</f>
         <v>CA01-6740003T00</v>
@@ -20896,7 +20896,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="9" t="str">
         <f>_xlfn.CONCAT(B990,"-",C990)</f>
         <v>CA14-6740003T00</v>
@@ -21193,166 +21193,165 @@
     </row>
     <row r="1007" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1007" t="str">
-        <f t="shared" ref="A1007:A1031" si="39">_xlfn.CONCAT(B1007,"-",C1007)</f>
-        <v>CA01-6740003T00</v>
+        <f t="shared" ref="A1007:A1030" si="39">_xlfn.CONCAT(B1007,"-",C1007)</f>
+        <v>CA02-6330020T01</v>
       </c>
       <c r="B1007" s="29" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C1007" s="30" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="D1007" s="31" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="E1007">
-        <f>VLOOKUP(C1007,Planilha1!$C:$E,3,0)</f>
-        <v>25000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="1008" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1008" t="str">
         <f t="shared" si="39"/>
-        <v>CA02-6330020T01</v>
+        <v>CA04-0130125T00</v>
       </c>
       <c r="B1008" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1008" s="30" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D1008" s="31" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E1008">
-        <v>18000</v>
+        <f>VLOOKUP(C1008,Planilha1!$C:$E,3,0)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="1009" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1009" t="str">
         <f t="shared" si="39"/>
-        <v>CA04-0130125T00</v>
+        <v>CA05-5810085T53</v>
       </c>
       <c r="B1009" s="29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C1009" s="30" t="s">
-        <v>888</v>
+        <v>356</v>
       </c>
       <c r="D1009" s="31" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="E1009">
         <f>VLOOKUP(C1009,Planilha1!$C:$E,3,0)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1010" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1010" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-5810085T53</v>
+        <v>CA05-5960022T00</v>
       </c>
       <c r="B1010" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1010" s="30" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
       <c r="D1010" s="31" t="s">
-        <v>898</v>
+        <v>458</v>
       </c>
       <c r="E1010">
         <f>VLOOKUP(C1010,Planilha1!$C:$E,3,0)</f>
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1011" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1011" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-5960022T00</v>
+        <v>CA05-6180004T00</v>
       </c>
       <c r="B1011" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1011" s="30" t="s">
-        <v>457</v>
+        <v>899</v>
       </c>
       <c r="D1011" s="31" t="s">
-        <v>458</v>
+        <v>900</v>
       </c>
       <c r="E1011">
-        <f>VLOOKUP(C1011,Planilha1!$C:$E,3,0)</f>
-        <v>35000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1012" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1012" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180004T00</v>
+        <v>CA05-6180005T00</v>
       </c>
       <c r="B1012" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1012" s="30" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D1012" s="31" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="E1012">
+        <f>VLOOKUP(C1012,Planilha1!$C:$E,3,0)</f>
         <v>50000</v>
       </c>
     </row>
     <row r="1013" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1013" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180005T00</v>
+        <v>CA05-6180006T00</v>
       </c>
       <c r="B1013" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1013" s="30" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="D1013" s="31" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E1013">
-        <f>VLOOKUP(C1013,Planilha1!$C:$E,3,0)</f>
         <v>50000</v>
       </c>
     </row>
     <row r="1014" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1014" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180006T00</v>
+        <v>CA05-6180007T00</v>
       </c>
       <c r="B1014" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1014" s="30" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D1014" s="31" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E1014">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1015" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1015" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180007T00</v>
+        <v>CA05-6180008T00</v>
       </c>
       <c r="B1015" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1015" s="30" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D1015" s="31" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E1015">
         <v>40000</v>
@@ -21361,89 +21360,90 @@
     <row r="1016" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1016" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180008T00</v>
+        <v>CA05-6180011T00</v>
       </c>
       <c r="B1016" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1016" s="30" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D1016" s="31" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E1016">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1017" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1017" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6180011T00</v>
+        <v>CA05-6430024T00</v>
       </c>
       <c r="B1017" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1017" s="30" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D1017" s="31" t="s">
-        <v>908</v>
+        <v>594</v>
       </c>
       <c r="E1017">
-        <v>50000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1018" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1018" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6430024T00</v>
+        <v>CA05-6830001T00</v>
       </c>
       <c r="B1018" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C1018" s="30" t="s">
-        <v>909</v>
+        <v>667</v>
       </c>
       <c r="D1018" s="31" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="E1018">
-        <v>35000</v>
+        <f>VLOOKUP(C1018,Planilha1!$C:$E,3,0)</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="1019" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1019" t="str">
         <f t="shared" si="39"/>
-        <v>CA05-6830001T00</v>
+        <v>CA06-5680081T00</v>
       </c>
       <c r="B1019" s="29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C1019" s="30" t="s">
-        <v>667</v>
+        <v>313</v>
       </c>
       <c r="D1019" s="31" t="s">
-        <v>668</v>
+        <v>314</v>
       </c>
       <c r="E1019">
         <f>VLOOKUP(C1019,Planilha1!$C:$E,3,0)</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1020" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1020" t="str">
         <f t="shared" si="39"/>
-        <v>CA06-5680081T00</v>
+        <v>CA07-6060013T00</v>
       </c>
       <c r="B1020" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1020" s="30" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="D1020" s="31" t="s">
-        <v>314</v>
+        <v>910</v>
       </c>
       <c r="E1020">
         <f>VLOOKUP(C1020,Planilha1!$C:$E,3,0)</f>
@@ -21453,54 +21453,53 @@
     <row r="1021" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1021" t="str">
         <f t="shared" si="39"/>
-        <v>CA07-6060013T00</v>
+        <v>CA07-6330004T01</v>
       </c>
       <c r="B1021" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C1021" s="30" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="D1021" s="31" t="s">
-        <v>910</v>
+        <v>563</v>
       </c>
       <c r="E1021">
         <f>VLOOKUP(C1021,Planilha1!$C:$E,3,0)</f>
-        <v>20000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1022" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1022" t="str">
         <f t="shared" si="39"/>
-        <v>CA07-6330004T01</v>
+        <v>CA07-6330023_27</v>
       </c>
       <c r="B1022" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C1022" s="30" t="s">
-        <v>562</v>
+        <v>911</v>
       </c>
       <c r="D1022" s="31" t="s">
-        <v>563</v>
+        <v>912</v>
       </c>
       <c r="E1022">
-        <f>VLOOKUP(C1022,Planilha1!$C:$E,3,0)</f>
-        <v>25000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="1023" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1023" t="str">
         <f t="shared" si="39"/>
-        <v>CA07-6330023_27</v>
+        <v>CA07-6330026T00</v>
       </c>
       <c r="B1023" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C1023" s="30" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D1023" s="31" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E1023">
         <v>18000</v>
@@ -21509,227 +21508,223 @@
     <row r="1024" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1024" t="str">
         <f t="shared" si="39"/>
-        <v>CA07-6330026T00</v>
+        <v>CA08-5860005T00</v>
       </c>
       <c r="B1024" s="29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1024" s="30" t="s">
-        <v>913</v>
+        <v>421</v>
       </c>
       <c r="D1024" s="31" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1024">
-        <v>18000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1025" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1025" t="str">
         <f t="shared" si="39"/>
-        <v>CA08-5860005T00</v>
+        <v>CA08-D58500784_</v>
       </c>
       <c r="B1025" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1025" s="30" t="s">
-        <v>421</v>
+        <v>916</v>
       </c>
       <c r="D1025" s="31" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E1025">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1026" t="str">
         <f t="shared" si="39"/>
-        <v>CA08-D58500784_</v>
+        <v>CA09-6260007T00</v>
       </c>
       <c r="B1026" s="29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1026" s="30" t="s">
-        <v>916</v>
+        <v>556</v>
       </c>
       <c r="D1026" s="31" t="s">
-        <v>917</v>
+        <v>557</v>
       </c>
       <c r="E1026">
-        <v>5000</v>
+        <f>VLOOKUP(C1026,Planilha1!$C:$E,3,0)</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="1027" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1027" t="str">
         <f t="shared" si="39"/>
-        <v>CA09-6260007T00</v>
+        <v>CA09-6330021T00</v>
       </c>
       <c r="B1027" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C1027" s="30" t="s">
-        <v>556</v>
+        <v>918</v>
       </c>
       <c r="D1027" s="31" t="s">
-        <v>557</v>
+        <v>919</v>
       </c>
       <c r="E1027">
-        <f>VLOOKUP(C1027,Planilha1!$C:$E,3,0)</f>
-        <v>40000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="1028" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1028" t="str">
         <f t="shared" si="39"/>
-        <v>CA09-6330021T00</v>
+        <v>CA10-3070002T00</v>
       </c>
       <c r="B1028" s="29" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C1028" s="30" t="s">
-        <v>918</v>
+        <v>246</v>
       </c>
       <c r="D1028" s="31" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1028">
-        <v>23000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1029" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1029" t="str">
         <f t="shared" si="39"/>
-        <v>CA10-3070002T00</v>
+        <v>CA11-D6790004_0</v>
       </c>
       <c r="B1029" s="29" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C1029" s="30" t="s">
-        <v>246</v>
+        <v>921</v>
       </c>
       <c r="D1029" s="31" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E1029">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1030" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1030" t="str">
         <f t="shared" si="39"/>
-        <v>CA11-D6790004_0</v>
+        <v>CA16-0130125T00</v>
       </c>
       <c r="B1030" s="29" t="s">
-        <v>17</v>
+        <v>869</v>
       </c>
       <c r="C1030" s="30" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="D1030" s="31" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="E1030">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1046862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1046862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1046863" s="9" t="str">
+        <f t="shared" ref="A1046863" si="40">_xlfn.CONCAT(B1046863,"-",C1046863)</f>
+        <v>CA01-0020075T04</v>
+      </c>
+      <c r="B1046863" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1046863" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1046863" s="10"/>
+      <c r="E1046863" s="11">
         <v>15000</v>
       </c>
     </row>
-    <row r="1031" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1031" t="str">
-        <f t="shared" si="39"/>
-        <v>CA16-0130125T00</v>
-      </c>
-      <c r="B1031" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="C1031" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="D1031" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="E1031">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="1046863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1046863">
-        <v>0</v>
-      </c>
-    </row>
     <row r="1046864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1046864" s="9" t="str">
-        <f t="shared" ref="A1046864" si="40">_xlfn.CONCAT(B1046864,"-",C1046864)</f>
-        <v>CA01-0020075T04</v>
-      </c>
-      <c r="B1046864" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1046864" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D1046864" s="10"/>
-      <c r="E1046864" s="11">
+      <c r="A1046864" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1046864" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1046864" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1046864" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1046864" s="4">
         <v>15000</v>
       </c>
     </row>
     <row r="1046865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1046865" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1046865" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1046865" t="s">
-        <v>788</v>
-      </c>
-      <c r="D1046865" s="19" t="s">
-        <v>181</v>
+      <c r="A1046865" t="s">
+        <v>789</v>
       </c>
       <c r="E1046865" s="4">
-        <v>15000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1046866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1046866" t="s">
-        <v>789</v>
-      </c>
-      <c r="E1046866" s="4">
-        <v>60000</v>
+      <c r="A1046866" s="9" t="str">
+        <f t="shared" ref="A1046866" si="41">_xlfn.CONCAT(B1046866,"-",C1046866)</f>
+        <v>CA14-6160006T00</v>
+      </c>
+      <c r="B1046866" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1046866" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1046866" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1046866" s="11">
+        <v>75000</v>
       </c>
     </row>
     <row r="1046867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1046867" s="9" t="str">
-        <f t="shared" ref="A1046867" si="41">_xlfn.CONCAT(B1046867,"-",C1046867)</f>
-        <v>CA14-6160006T00</v>
-      </c>
-      <c r="B1046867" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1046867" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1046867" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E1046867" s="11">
-        <v>75000</v>
+      <c r="A1046867" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1046867" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1046867" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1046867" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="E1046867" s="4">
+        <v>10000</v>
       </c>
     </row>
     <row r="1046868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046868" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B1046868" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1046868" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="D1046868" s="19" t="s">
-        <v>791</v>
+        <v>11</v>
+      </c>
+      <c r="D1046868" t="s">
+        <v>754</v>
       </c>
       <c r="E1046868" s="4">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1046869" spans="1:5" x14ac:dyDescent="0.25">
@@ -21740,33 +21735,19 @@
         <v>11</v>
       </c>
       <c r="D1046869" t="s">
-        <v>754</v>
+        <v>678</v>
       </c>
       <c r="E1046869" s="4">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="1046870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1046870" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1046870" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1046870" t="s">
-        <v>678</v>
-      </c>
-      <c r="E1046870" s="4">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:F1031" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}">
+  <autoFilter ref="A1:F1030" xr:uid="{BC2F47A8-D1C5-48BB-BD1E-73F6F641469D}">
     <filterColumn colId="3">
       <filters>
-        <filter val="CART BONEWAX (BRRM80138) - 58500784_02"/>
-        <filter val="CART ETHICON BONEWAX CERA ÓSSEA W31C (BRRM73133)"/>
+        <filter val="12 LT 473ml DD HEINEKEN 5422AH0001 F21 318"/>
+        <filter val="8 LT 269ml FM HEINEKEN 6925AH0003 8i"/>
       </filters>
     </filterColumn>
   </autoFilter>
